--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3aa8172b9163bf4b/Documents/CCT/DataAnalytics/8.Capstone/Capstone Github Repository/MSc-Capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{8B975B9C-7C3C-4FA1-999B-11F3734BEEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C326C7B-5379-42F9-A060-70C3766B35CB}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{8B975B9C-7C3C-4FA1-999B-11F3734BEEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D7992B0-A35B-4DCB-8D37-E991E65BDA32}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-480" yWindow="804" windowWidth="21600" windowHeight="11232" activeTab="3" xr2:uid="{71125767-81DB-46BD-9156-A0AA2BEEECE0}"/>
+    <workbookView xWindow="29265" yWindow="1665" windowWidth="21600" windowHeight="11235" activeTab="4" xr2:uid="{71125767-81DB-46BD-9156-A0AA2BEEECE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="84">
   <si>
     <t>Comparison</t>
   </si>
@@ -264,6 +265,33 @@
   </si>
   <si>
     <t>Statistical Significance for CommDateProvided:</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>F1 Score</t>
+  </si>
+  <si>
+    <t>ROC AUC Score</t>
+  </si>
+  <si>
+    <t>Logistic Regression</t>
+  </si>
+  <si>
+    <t>Decision Tree</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>Gradient Boosting</t>
+  </si>
+  <si>
+    <t>LightGBM</t>
   </si>
 </sst>
 </file>
@@ -343,6 +371,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2586,7 +2618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E57A0E-6596-4AB3-B2A7-58C8B1D5AC8C}">
   <dimension ref="B2:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B51" sqref="B51:E62"/>
     </sheetView>
   </sheetViews>
@@ -3399,4 +3431,146 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E628E468-E23C-4834-ABD1-BF2876B0156E}">
+  <dimension ref="B2:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3aa8172b9163bf4b/Documents/CCT/DataAnalytics/8.Capstone/Capstone Github Repository/MSc-Capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{8B975B9C-7C3C-4FA1-999B-11F3734BEEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D7992B0-A35B-4DCB-8D37-E991E65BDA32}"/>
+  <xr:revisionPtr revIDLastSave="221" documentId="8_{8B975B9C-7C3C-4FA1-999B-11F3734BEEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B69CCFA2-0808-4DD3-9E14-D1F149F6ABD0}"/>
   <bookViews>
-    <workbookView xWindow="29265" yWindow="1665" windowWidth="21600" windowHeight="11235" activeTab="4" xr2:uid="{71125767-81DB-46BD-9156-A0AA2BEEECE0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="855" firstSheet="7" activeTab="10" xr2:uid="{71125767-81DB-46BD-9156-A0AA2BEEECE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,18 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="RF" sheetId="6" r:id="rId6"/>
+    <sheet name="GB" sheetId="7" r:id="rId7"/>
+    <sheet name="LGB" sheetId="8" r:id="rId8"/>
+    <sheet name="Class Aware" sheetId="9" r:id="rId9"/>
+    <sheet name="RFECV" sheetId="10" r:id="rId10"/>
+    <sheet name="Comparison" sheetId="18" r:id="rId11"/>
+    <sheet name="Oversampled RF" sheetId="11" r:id="rId12"/>
+    <sheet name="Oversampled GB" sheetId="12" r:id="rId13"/>
+    <sheet name="Oversampled LGB" sheetId="13" r:id="rId14"/>
+    <sheet name="Oversampled Class Aware" sheetId="14" r:id="rId15"/>
+    <sheet name="Oversampled RFECV" sheetId="16" r:id="rId16"/>
+    <sheet name="Oversampled Association Analysi" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="108">
   <si>
     <t>Comparison</t>
   </si>
@@ -292,6 +304,78 @@
   </si>
   <si>
     <t>LightGBM</t>
+  </si>
+  <si>
+    <t>Imbalanced</t>
+  </si>
+  <si>
+    <t>Rebalanced</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Class Aware</t>
+  </si>
+  <si>
+    <t>RFE  - RF</t>
+  </si>
+  <si>
+    <t>RFE - GB</t>
+  </si>
+  <si>
+    <t>RFE - LGBM</t>
+  </si>
+  <si>
+    <t>Feature Importances</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Top N Features</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>MDRAUC</t>
+  </si>
+  <si>
+    <t>RFECV with Random Forest</t>
+  </si>
+  <si>
+    <t>RFECV with Gradient Boosting</t>
+  </si>
+  <si>
+    <t>RFECV with LightGBM</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>n_estimators: 50</t>
+  </si>
+  <si>
+    <t>n_estimators: 100</t>
+  </si>
+  <si>
+    <t>n_estimators: 200</t>
+  </si>
+  <si>
+    <t>PolicyIssued vs Feature</t>
+  </si>
+  <si>
+    <t>Control ROC AUC</t>
+  </si>
+  <si>
+    <t>Experiment ROC AUC</t>
   </si>
 </sst>
 </file>
@@ -323,7 +407,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -346,16 +430,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1402,6 +1532,2168 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16BCC145-39F0-4E75-9CC3-FD380228DAEF}">
+  <dimension ref="B2:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C589D7-F038-4335-94EC-15A31F7994AF}">
+  <dimension ref="B2:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.6986</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.5948</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.17150000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="6"/>
+      <c r="C4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.76219999999999999</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.72760000000000002</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="7"/>
+      <c r="C5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.79079999999999995</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1">
+        <v>6.6199999999999995E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.69650000000000001</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.55820000000000003</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="1">
+        <v>6.3500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="6"/>
+      <c r="C7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.76190000000000002</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.60060000000000002</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5.7700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="7"/>
+      <c r="C8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.59619999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.69850000000000001</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.65720000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="6"/>
+      <c r="C10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.76190000000000002</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.76039999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="7"/>
+      <c r="C11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.80449999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.69869999999999999</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.69440000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="6"/>
+      <c r="C13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.76170000000000004</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.75409999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="7"/>
+      <c r="C14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.8075</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.69740000000000002</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.69940000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="6"/>
+      <c r="C16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.76219999999999999</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.75739999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="7"/>
+      <c r="C17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.80859999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24CA134C-3B5E-4983-BA94-03E836D2E748}">
+  <dimension ref="B2:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.42725600000000002</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.42763000000000001</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.42803200000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.23915400000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.23987</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.23866599999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6.8365999999999996E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6.8364999999999995E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6.7977999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6.1990000000000003E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6.5161999999999998E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>7.2202000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5.7667999999999997E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5.3308000000000001E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4.7973000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5.7188000000000003E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5.7072999999999999E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5.7038999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.8065999999999999E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.7908E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.8131000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.451E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.5271E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.4955E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8.9529999999999992E-3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8.7899999999999992E-3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8.8090000000000009E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1">
+        <v>8.5959999999999995E-3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>8.6149999999999994E-3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>8.5579999999999996E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1">
+        <v>8.116E-3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>7.9159999999999994E-3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>7.8289999999999992E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1">
+        <v>7.3049999999999999E-3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>7.2139999999999999E-3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>7.2199999999999999E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5.1500000000000001E-3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5.1500000000000001E-3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5.058E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3.774E-3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3.8470000000000002E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.5660000000000001E-3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.5430000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2.3900000000000002E-3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2.398E-3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2.3570000000000002E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2.1289999999999998E-3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2.186E-3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2.2169999999999998E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.042E-3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.0089999999999999E-3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.9350000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.9419999999999999E-3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.9959999999999999E-3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.9550000000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1.58E-3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.591E-3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.6230000000000001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1.261E-3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.207E-3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1.0759999999999999E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4786AC-5CF2-4E5E-BC80-05CFFBB29546}">
+  <dimension ref="B2:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.85145999999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.81910799999999995</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.78725199999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4.7175000000000002E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4.5731000000000001E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4.5034999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.9293E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.9218999999999998E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.8414999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.5378000000000001E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.4882000000000003E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5.0418999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.1661E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.2202E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.2055999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="1">
+        <v>9.0860000000000003E-3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.6179000000000001E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3.6313999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6.1510000000000002E-3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>6.267E-3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6.2960000000000004E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5.3010000000000002E-3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>7.1040000000000001E-3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7.5690000000000002E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.152E-3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.134E-3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.1789999999999999E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9.2000000000000003E-4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.235E-3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.488E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1">
+        <v>8.1099999999999998E-4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.619E-3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2.274E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1">
+        <v>7.7399999999999995E-4</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.204E-3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.5319999999999999E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5.9699999999999998E-4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>9.2599999999999996E-4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2.598E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2.24E-4</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.2060000000000001E-3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3.787E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.5E-5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.5E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3.1500000000000001E-4</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5.3700000000000004E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4.2200000000000001E-4</v>
+      </c>
+      <c r="E19" s="1">
+        <v>5.2499999999999997E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.5200000000000001E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>6.3E-5</v>
+      </c>
+      <c r="E21" s="1">
+        <v>5.7399999999999997E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897884BE-0950-4E92-9FD3-5CB8A31AC265}">
+  <dimension ref="B2:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.78725199999999995</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.78725199999999995</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.78725199999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5.0418999999999999E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5.0418999999999999E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5.0418999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4.5034999999999999E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4.5034999999999999E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4.5034999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.6313999999999999E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.6313999999999999E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3.6313999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.8414999999999999E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.8414999999999999E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.8414999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.2055999999999999E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.2055999999999999E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.2055999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1">
+        <v>7.5690000000000002E-3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7.5690000000000002E-3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>7.5690000000000002E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6.2960000000000004E-3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>6.2960000000000004E-3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>6.2960000000000004E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3.787E-3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3.787E-3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3.787E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.598E-3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.598E-3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.598E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2.274E-3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.274E-3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2.274E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.983E-3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.983E-3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.983E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.5319999999999999E-3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.5319999999999999E-3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.5319999999999999E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.488E-3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.488E-3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.488E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.1789999999999999E-3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.1789999999999999E-3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.1789999999999999E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5.7399999999999997E-4</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5.7399999999999997E-4</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5.7399999999999997E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5.3700000000000004E-4</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5.3700000000000004E-4</v>
+      </c>
+      <c r="E19" s="1">
+        <v>5.3700000000000004E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5.2499999999999997E-4</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5.2499999999999997E-4</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5.2499999999999997E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.5200000000000001E-4</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.5200000000000001E-4</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.5200000000000001E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1.5E-5</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.5E-5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.5E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6EC333-683A-4815-A8CF-590514E1721C}">
+  <dimension ref="B2:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="29.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3.8199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.2899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.53E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9.2999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3.2000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.2000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.6999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1">
+        <v>-1E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="1">
+        <v>-4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="1">
+        <v>-5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="1">
+        <v>-1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="1">
+        <v>-5.1299999999999998E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D856E237-A612-44BA-B0DE-31F971ED8CAA}">
+  <dimension ref="B2:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12671294-877D-4CE7-828C-5A01E8BEB8F6}">
+  <dimension ref="B2:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="B2:E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.14076706767800001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2521.2118473433702</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.121278467758</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2521.2118473433702</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.103504536881</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2521.2118473433702</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.37070202349100001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2521.2118473433702</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.511827908341</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2521.2118473433702</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4.2549369348999999E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2521.2118473433702</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8.1317189897E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2521.2118473433702</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.30894928064299998</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2521.2118473433702</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.4733254786999999E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2521.2118473433702</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.394891309257</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2521.2118473433702</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.9706688593999998E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2521.2118473433702</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.0738142968000001E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2521.2118473433702</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2.3115574073000002E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2521.2118473433702</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.115317809216</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2521.2118473433702</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2521.2118473433702</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6.4295714660000001E-3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2521.2118473433702</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.6835178584999999E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2521.2118473433702</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.11968010339</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2521.2118473433702</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="1">
+        <v>6.6360879533999995E-2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2521.2118473433702</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2.1102163847000002E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2521.2118473433702</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.117421625594</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2521.2118473433702</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2B5D53-28DD-4BB8-8E48-CBC2ECB8B695}">
   <dimension ref="B1:N22"/>
@@ -3435,10 +5727,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E628E468-E23C-4834-ABD1-BF2876B0156E}">
-  <dimension ref="B2:G7"/>
+  <dimension ref="B2:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3448,9 +5740,13 @@
     <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>59</v>
       </c>
@@ -3470,7 +5766,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>79</v>
       </c>
@@ -3489,8 +5785,30 @@
       <c r="G3" s="1">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>80</v>
       </c>
@@ -3509,8 +5827,32 @@
       <c r="G4" s="1">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="J4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>81</v>
       </c>
@@ -3529,8 +5871,26 @@
       <c r="G5" s="1">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="J5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>82</v>
       </c>
@@ -3550,7 +5910,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>83</v>
       </c>
@@ -3568,6 +5928,4225 @@
       </c>
       <c r="G7" s="1">
         <v>0.65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB88513-7072-42D2-BE86-ABF4E1A28495}">
+  <dimension ref="B2:N59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:N21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="16.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.56821200000000005</v>
+      </c>
+      <c r="F3" s="1">
+        <v>50</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.51365251845778304</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="1">
+        <f>VLOOKUP(K3,$C$3:$D$21,2,FALSE)</f>
+        <v>0.56821200000000005</v>
+      </c>
+      <c r="M3" s="1">
+        <f>VLOOKUP(K3,$C$22:$D$40,2,FALSE)</f>
+        <v>0.56737599999999999</v>
+      </c>
+      <c r="N3" s="1">
+        <f>VLOOKUP(K3,$C$41:$D$59,2,FALSE)</f>
+        <v>0.56726600000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.177457</v>
+      </c>
+      <c r="F4" s="1">
+        <v>50</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.64145622823498905</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:M21" si="0">VLOOKUP(K4,$C$3:$D$21,2,FALSE)</f>
+        <v>0.177457</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" ref="M4:N21" si="1">VLOOKUP(K4,$C$22:$D$40,2,FALSE)</f>
+        <v>0.17438200000000001</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" ref="N4:N21" si="2">VLOOKUP(K4,$C$41:$D$59,2,FALSE)</f>
+        <v>0.192298</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1">
+        <v>9.9781999999999996E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>50</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.64585239236425995</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>9.9781999999999996E-2</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.105368</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="2"/>
+        <v>8.9510999999999993E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.7087000000000002E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.64715838453823005</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="0"/>
+        <v>3.7087000000000002E-2</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4927E-2</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="2"/>
+        <v>3.397E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.4222E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>50</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.64989614750525504</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4222E-2</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4224000000000001E-2</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3956E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.3113E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>50</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.64672359696238901</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3113E-2</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3520000000000001E-2</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3573E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.2710000000000001E-2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>50</v>
+      </c>
+      <c r="G9" s="1">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.65017734602207</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2710000000000001E-2</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2435E-2</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2193000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.2109E-2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>100</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.51417562569278896</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2109E-2</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1068E-2</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0102999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.1081000000000001E-2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>100</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.64176315918981397</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1081000000000001E-2</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1337E-2</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1183E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>50</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.093E-2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>100</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.64088150050267501</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.093E-2</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1093E-2</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0966E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>50</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.0862999999999999E-2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>100</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.64258461990030802</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0862999999999999E-2</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1422E-2</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1795E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>50</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="1">
+        <v>9.6460000000000001E-3</v>
+      </c>
+      <c r="F14" s="1">
+        <v>100</v>
+      </c>
+      <c r="G14" s="1">
+        <v>5</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.65042260517509198</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="0"/>
+        <v>9.6460000000000001E-3</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="1"/>
+        <v>9.9939999999999994E-3</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="2"/>
+        <v>9.6500000000000006E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>50</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5.6049999999999997E-3</v>
+      </c>
+      <c r="F15" s="1">
+        <v>100</v>
+      </c>
+      <c r="G15" s="1">
+        <v>6</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.64534212846277506</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="0"/>
+        <v>5.6049999999999997E-3</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="1"/>
+        <v>5.5669999999999999E-3</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="2"/>
+        <v>5.3280000000000003E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>50</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3.9439999999999996E-3</v>
+      </c>
+      <c r="F16" s="1">
+        <v>100</v>
+      </c>
+      <c r="G16" s="1">
+        <v>7</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.64809070253235701</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="0"/>
+        <v>3.9439999999999996E-3</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="1"/>
+        <v>3.9420000000000002E-3</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="2"/>
+        <v>3.8270000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>50</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3.862E-3</v>
+      </c>
+      <c r="F17" s="1">
+        <v>200</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.51389478418952095</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="0"/>
+        <v>3.862E-3</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="1"/>
+        <v>3.9269999999999999E-3</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="2"/>
+        <v>3.9230000000000003E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>50</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3.2009999999999999E-3</v>
+      </c>
+      <c r="F18" s="1">
+        <v>200</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.64359895946845302</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="0"/>
+        <v>3.2009999999999999E-3</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="1"/>
+        <v>3.1819999999999999E-3</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="2"/>
+        <v>3.2420000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2.941E-3</v>
+      </c>
+      <c r="F19" s="1">
+        <v>200</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.64121284569164105</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="0"/>
+        <v>2.941E-3</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="1"/>
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="2"/>
+        <v>3.0980000000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <v>50</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.637E-3</v>
+      </c>
+      <c r="F20" s="1">
+        <v>200</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.643082754495368</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="0"/>
+        <v>2.637E-3</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="1"/>
+        <v>2.6319999999999998E-3</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="2"/>
+        <v>2.6549999999999998E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
+        <v>50</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5.9800000000000001E-4</v>
+      </c>
+      <c r="F21" s="1">
+        <v>200</v>
+      </c>
+      <c r="G21" s="1">
+        <v>5</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.65153739370882802</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="0"/>
+        <v>5.9800000000000001E-4</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="1"/>
+        <v>5.04E-4</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="2"/>
+        <v>4.6299999999999998E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B22" s="1">
+        <v>100</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.56737599999999999</v>
+      </c>
+      <c r="F22" s="1">
+        <v>200</v>
+      </c>
+      <c r="G22" s="1">
+        <v>6</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.64809648798266695</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="1">
+        <v>100</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.17438200000000001</v>
+      </c>
+      <c r="F23" s="1">
+        <v>200</v>
+      </c>
+      <c r="G23" s="1">
+        <v>7</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.64794888576621001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="1">
+        <v>100</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.105368</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="1">
+        <v>100</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3.4927E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="1">
+        <v>100</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.4224000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="1">
+        <v>100</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.3520000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="1">
+        <v>100</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1.2435E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="1">
+        <v>100</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1.1422E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="1">
+        <v>100</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.1337E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="1">
+        <v>100</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1.1093E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B32" s="1">
+        <v>100</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1.1068E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="1">
+        <v>100</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="1">
+        <v>9.9939999999999994E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="1">
+        <v>100</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="1">
+        <v>5.5669999999999999E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="1">
+        <v>100</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="1">
+        <v>3.9420000000000002E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="1">
+        <v>100</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3.9269999999999999E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="1">
+        <v>100</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="1">
+        <v>3.1819999999999999E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="1">
+        <v>100</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="1">
+        <v>100</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2.6319999999999998E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="1">
+        <v>100</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="1">
+        <v>5.04E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="1">
+        <v>200</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.56726600000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="1">
+        <v>200</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.192298</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="1">
+        <v>200</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="1">
+        <v>8.9510999999999993E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="1">
+        <v>200</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3.397E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="1">
+        <v>200</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1.3956E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="1">
+        <v>200</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1.3573E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="1">
+        <v>200</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1.2193000000000001E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="1">
+        <v>200</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1.1795E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="1">
+        <v>200</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1.1183E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="1">
+        <v>200</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1.0966E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="1">
+        <v>200</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1.0102999999999999E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="1">
+        <v>200</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="1">
+        <v>9.6500000000000006E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="1">
+        <v>200</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="1">
+        <v>5.3280000000000003E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="1">
+        <v>200</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" s="1">
+        <v>3.8270000000000001E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="1">
+        <v>200</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="1">
+        <v>3.9230000000000003E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56" s="1">
+        <v>200</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D56" s="1">
+        <v>3.2420000000000001E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57" s="1">
+        <v>200</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57" s="1">
+        <v>3.0980000000000001E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58" s="1">
+        <v>200</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" s="1">
+        <v>2.6549999999999998E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59" s="1">
+        <v>200</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="1">
+        <v>4.6299999999999998E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF06824E-463E-4C3B-87CC-34DF8B3DE660}">
+  <dimension ref="B2:N58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:N20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="16.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.73213399999999995</v>
+      </c>
+      <c r="F3" s="1">
+        <v>50</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.50017927572606602</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="1">
+        <f>VLOOKUP(K3,$C$3:$D$21,2,FALSE)</f>
+        <v>0.73213399999999995</v>
+      </c>
+      <c r="M3" s="1">
+        <f>VLOOKUP(K3,$C$21:$D$39,2,FALSE)</f>
+        <v>0.71700600000000003</v>
+      </c>
+      <c r="N3" s="1">
+        <f>VLOOKUP(K3,$C$40:$D$58,2,FALSE)</f>
+        <v>0.70241100000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.123139</v>
+      </c>
+      <c r="F4" s="1">
+        <v>50</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.57126149693473605</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:M19" si="0">VLOOKUP(K4,$C$3:$D$21,2,FALSE)</f>
+        <v>0.123139</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" ref="M4:M20" si="1">VLOOKUP(K4,$C$21:$D$39,2,FALSE)</f>
+        <v>0.13553699999999999</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" ref="N4:N20" si="2">VLOOKUP(K4,$C$40:$D$58,2,FALSE)</f>
+        <v>0.148086</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>50</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.58688437316183695</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="1"/>
+        <v>5.6161000000000003E-2</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="2"/>
+        <v>5.6155999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.8173E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.575311595931847</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8173E-2</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="1"/>
+        <v>2.7444E-2</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="2"/>
+        <v>2.6817000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.7467E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>50</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.58424629936233996</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7467E-2</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7572999999999998E-2</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7354999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.2451E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>50</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.58511379651209094</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2451E-2</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2961E-2</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3004E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.0935E-2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>50</v>
+      </c>
+      <c r="G9" s="1">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.58331657200498199</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0935E-2</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1256E-2</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1202E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.082E-2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>50</v>
+      </c>
+      <c r="G10" s="1">
+        <v>8</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.58191814993895197</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.082E-2</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0808E-2</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0718999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3.8440000000000002E-3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>50</v>
+      </c>
+      <c r="G11" s="1">
+        <v>9</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.58191814993895197</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="0"/>
+        <v>3.8440000000000002E-3</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="1"/>
+        <v>4.7369999999999999E-3</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="2"/>
+        <v>4.8510000000000003E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>50</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3.8409999999999998E-3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>50</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.581867087847449</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="0"/>
+        <v>3.8409999999999998E-3</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="1"/>
+        <v>4.333E-3</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="2"/>
+        <v>4.3819999999999996E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>50</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5.1599999999999997E-4</v>
+      </c>
+      <c r="F13" s="1">
+        <v>50</v>
+      </c>
+      <c r="G13" s="1">
+        <v>11</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.59067357764337902</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="0"/>
+        <v>5.1599999999999997E-4</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="1"/>
+        <v>7.7700000000000002E-4</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>50</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1">
+        <v>7.7999999999999999E-5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>50</v>
+      </c>
+      <c r="G14" s="1">
+        <v>12</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.59022538832821203</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="0"/>
+        <v>7.7999999999999999E-5</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="1"/>
+        <v>3.0800000000000001E-4</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="2"/>
+        <v>8.9899999999999995E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>50</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>50</v>
+      </c>
+      <c r="G15" s="1">
+        <v>13</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.59022538832821203</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5100000000000001E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>50</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>50</v>
+      </c>
+      <c r="G16" s="1">
+        <v>14</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.59022538832821203</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3000000000000003E-5</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="2"/>
+        <v>4.4499999999999997E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>50</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>50</v>
+      </c>
+      <c r="G17" s="1">
+        <v>15</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.59022538832821203</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999998E-5</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="2"/>
+        <v>5.8500000000000002E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>50</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>50</v>
+      </c>
+      <c r="G18" s="1">
+        <v>16</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.59022538832821203</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="1"/>
+        <v>1.92E-4</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="2"/>
+        <v>3.19E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>50</v>
+      </c>
+      <c r="G19" s="1">
+        <v>17</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.59022538832821203</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="1"/>
+        <v>2.14E-4</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="2"/>
+        <v>3.9399999999999998E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <v>50</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>50</v>
+      </c>
+      <c r="G20" s="1">
+        <v>18</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.59022538832821203</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" ref="L20:M21" si="3">VLOOKUP(K20,$C$3:$D$21,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
+        <v>100</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.71700600000000003</v>
+      </c>
+      <c r="F21" s="1">
+        <v>50</v>
+      </c>
+      <c r="G21" s="1">
+        <v>19</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.59022538832821203</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B22" s="1">
+        <v>100</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.13553699999999999</v>
+      </c>
+      <c r="F22" s="1">
+        <v>100</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.50017927572606602</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="1">
+        <v>100</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5.6161000000000003E-2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>100</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.57310587469271201</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="1">
+        <v>100</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2.7444E-2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>100</v>
+      </c>
+      <c r="G24" s="1">
+        <v>3</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.59131855465683303</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="1">
+        <v>100</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.7572999999999998E-2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>100</v>
+      </c>
+      <c r="G25" s="1">
+        <v>4</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.590289495145494</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="1">
+        <v>100</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.2961E-2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>100</v>
+      </c>
+      <c r="G26" s="1">
+        <v>5</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.59739454076120702</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="1">
+        <v>100</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.1256E-2</v>
+      </c>
+      <c r="F27" s="1">
+        <v>100</v>
+      </c>
+      <c r="G27" s="1">
+        <v>6</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.59220021334397199</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="1">
+        <v>100</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1.0808E-2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>100</v>
+      </c>
+      <c r="G28" s="1">
+        <v>7</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.59898137443844501</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="1">
+        <v>100</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="1">
+        <v>4.7369999999999999E-3</v>
+      </c>
+      <c r="F29" s="1">
+        <v>100</v>
+      </c>
+      <c r="G29" s="1">
+        <v>8</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.59655780170171302</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="1">
+        <v>100</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="1">
+        <v>4.333E-3</v>
+      </c>
+      <c r="F30" s="1">
+        <v>100</v>
+      </c>
+      <c r="G30" s="1">
+        <v>9</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.59655780170171302</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="1">
+        <v>100</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="1">
+        <v>7.7700000000000002E-4</v>
+      </c>
+      <c r="F31" s="1">
+        <v>100</v>
+      </c>
+      <c r="G31" s="1">
+        <v>10</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.59648176697026301</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B32" s="1">
+        <v>100</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="1">
+        <v>5.8399999999999999E-4</v>
+      </c>
+      <c r="F32" s="1">
+        <v>100</v>
+      </c>
+      <c r="G32" s="1">
+        <v>11</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.59705816991999305</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="1">
+        <v>100</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3.0800000000000001E-4</v>
+      </c>
+      <c r="F33" s="1">
+        <v>100</v>
+      </c>
+      <c r="G33" s="1">
+        <v>12</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.59708370096574503</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="1">
+        <v>100</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2.14E-4</v>
+      </c>
+      <c r="F34" s="1">
+        <v>100</v>
+      </c>
+      <c r="G34" s="1">
+        <v>13</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.59730155246334204</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="1">
+        <v>100</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1.92E-4</v>
+      </c>
+      <c r="F35" s="1">
+        <v>100</v>
+      </c>
+      <c r="G35" s="1">
+        <v>14</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.59791597277879704</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="1">
+        <v>100</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="1">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="F36" s="1">
+        <v>100</v>
+      </c>
+      <c r="G36" s="1">
+        <v>15</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.59791653118460197</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="1">
+        <v>100</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="1">
+        <v>3.3000000000000003E-5</v>
+      </c>
+      <c r="F37" s="1">
+        <v>100</v>
+      </c>
+      <c r="G37" s="1">
+        <v>16</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.59823650686520502</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="1">
+        <v>100</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2.5999999999999998E-5</v>
+      </c>
+      <c r="F38" s="1">
+        <v>100</v>
+      </c>
+      <c r="G38" s="1">
+        <v>17</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.59837720681974205</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="1">
+        <v>100</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>100</v>
+      </c>
+      <c r="G39" s="1">
+        <v>18</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.59837720681974205</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="1">
+        <v>200</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.70241100000000001</v>
+      </c>
+      <c r="F40" s="1">
+        <v>100</v>
+      </c>
+      <c r="G40" s="1">
+        <v>19</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.59837720681974205</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="1">
+        <v>200</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.148086</v>
+      </c>
+      <c r="F41" s="1">
+        <v>200</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.50017927572606602</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="1">
+        <v>200</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="1">
+        <v>5.6155999999999998E-2</v>
+      </c>
+      <c r="F42" s="1">
+        <v>200</v>
+      </c>
+      <c r="G42" s="1">
+        <v>2</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.57533656857179305</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="1">
+        <v>200</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2.6817000000000001E-2</v>
+      </c>
+      <c r="F43" s="1">
+        <v>200</v>
+      </c>
+      <c r="G43" s="1">
+        <v>3</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.59935408742796703</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="1">
+        <v>200</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1.7354999999999999E-2</v>
+      </c>
+      <c r="F44" s="1">
+        <v>200</v>
+      </c>
+      <c r="G44" s="1">
+        <v>4</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.59446836618297305</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="1">
+        <v>200</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1.3004E-2</v>
+      </c>
+      <c r="F45" s="1">
+        <v>200</v>
+      </c>
+      <c r="G45" s="1">
+        <v>5</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.59655947691912903</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="1">
+        <v>200</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1.1202E-2</v>
+      </c>
+      <c r="F46" s="1">
+        <v>200</v>
+      </c>
+      <c r="G46" s="1">
+        <v>6</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.60329982861885001</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="1">
+        <v>200</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1.0718999999999999E-2</v>
+      </c>
+      <c r="F47" s="1">
+        <v>200</v>
+      </c>
+      <c r="G47" s="1">
+        <v>7</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.60669693152897497</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="1">
+        <v>200</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" s="1">
+        <v>4.8510000000000003E-3</v>
+      </c>
+      <c r="F48" s="1">
+        <v>200</v>
+      </c>
+      <c r="G48" s="1">
+        <v>8</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0.60934972527166698</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49" s="1">
+        <v>200</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="1">
+        <v>4.3819999999999996E-3</v>
+      </c>
+      <c r="F49" s="1">
+        <v>200</v>
+      </c>
+      <c r="G49" s="1">
+        <v>9</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0.60934972527166698</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50" s="1">
+        <v>200</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1.175E-3</v>
+      </c>
+      <c r="F50" s="1">
+        <v>200</v>
+      </c>
+      <c r="G50" s="1">
+        <v>10</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0.60677240785462006</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51" s="1">
+        <v>200</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1.0499999999999999E-3</v>
+      </c>
+      <c r="F51" s="1">
+        <v>200</v>
+      </c>
+      <c r="G51" s="1">
+        <v>11</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.61050029699999997</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B52" s="1">
+        <v>200</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="1">
+        <v>8.9899999999999995E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53" s="1">
+        <v>200</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="1">
+        <v>5.8500000000000002E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B54" s="1">
+        <v>200</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" s="1">
+        <v>4.4499999999999997E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B55" s="1">
+        <v>200</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="1">
+        <v>3.9399999999999998E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B56" s="1">
+        <v>200</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D56" s="1">
+        <v>3.19E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B57" s="1">
+        <v>200</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1.5100000000000001E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58" s="1">
+        <v>200</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC06D47-1EFA-451E-9707-EA6470EF15A1}">
+  <dimension ref="B2:N59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="16.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1">
+        <v>963</v>
+      </c>
+      <c r="F3" s="1">
+        <v>50</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.51180000000000003</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="1">
+        <f>VLOOKUP(K3,$C$3:$D$21,2,FALSE)</f>
+        <v>963</v>
+      </c>
+      <c r="M3" s="1">
+        <f>VLOOKUP(K3,$C$22:$D$40,2,FALSE)</f>
+        <v>1681</v>
+      </c>
+      <c r="N3" s="1">
+        <f>VLOOKUP(K3,$C$41:$D$59,2,FALSE)</f>
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1">
+        <v>78</v>
+      </c>
+      <c r="F4" s="1">
+        <v>50</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.61880000000000002</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:M19" si="0">VLOOKUP(K4,$C$3:$D$21,2,FALSE)</f>
+        <v>78</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" ref="M4:M21" si="1">VLOOKUP(K4,$C$22:$D$40,2,FALSE)</f>
+        <v>112</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" ref="N4:N21" si="2">VLOOKUP(K4,$C$41:$D$59,2,FALSE)</f>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1">
+        <v>74</v>
+      </c>
+      <c r="F5" s="1">
+        <v>50</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.62319999999999998</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="2"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1">
+        <v>58</v>
+      </c>
+      <c r="F6" s="1">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.62139999999999995</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="2"/>
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1">
+        <v>56</v>
+      </c>
+      <c r="F7" s="1">
+        <v>50</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.62450000000000006</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="1"/>
+        <v>137</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="2"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1">
+        <v>40</v>
+      </c>
+      <c r="F8" s="1">
+        <v>50</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.64149999999999996</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1">
+        <v>50</v>
+      </c>
+      <c r="G9" s="1">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.64239999999999997</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="2"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1">
+        <v>34</v>
+      </c>
+      <c r="F10" s="1">
+        <v>50</v>
+      </c>
+      <c r="G10" s="1">
+        <v>8</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.63790000000000002</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="2"/>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1">
+        <v>32</v>
+      </c>
+      <c r="F11" s="1">
+        <v>50</v>
+      </c>
+      <c r="G11" s="1">
+        <v>9</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.6411</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="2"/>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>50</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1">
+        <v>28</v>
+      </c>
+      <c r="F12" s="1">
+        <v>50</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.63990000000000002</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>50</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1">
+        <v>26</v>
+      </c>
+      <c r="F13" s="1">
+        <v>50</v>
+      </c>
+      <c r="G13" s="1">
+        <v>11</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.64049999999999996</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="2"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>50</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1">
+        <v>16</v>
+      </c>
+      <c r="F14" s="1">
+        <v>50</v>
+      </c>
+      <c r="G14" s="1">
+        <v>12</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.63790000000000002</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="2"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>50</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1">
+        <v>15</v>
+      </c>
+      <c r="F15" s="1">
+        <v>50</v>
+      </c>
+      <c r="G15" s="1">
+        <v>13</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.64149999999999996</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>50</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="1">
+        <v>14</v>
+      </c>
+      <c r="F16" s="1">
+        <v>50</v>
+      </c>
+      <c r="G16" s="1">
+        <v>14</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.64149999999999996</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>50</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="1">
+        <v>13</v>
+      </c>
+      <c r="F17" s="1">
+        <v>50</v>
+      </c>
+      <c r="G17" s="1">
+        <v>15</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.6411</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="2"/>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>50</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="1">
+        <v>9</v>
+      </c>
+      <c r="F18" s="1">
+        <v>50</v>
+      </c>
+      <c r="G18" s="1">
+        <v>16</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.63970000000000005</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>50</v>
+      </c>
+      <c r="G19" s="1">
+        <v>17</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.63990000000000002</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <v>50</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>50</v>
+      </c>
+      <c r="G20" s="1">
+        <v>18</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.64039999999999997</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" ref="L20:M21" si="3">VLOOKUP(K20,$C$3:$D$21,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
+        <v>50</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>50</v>
+      </c>
+      <c r="G21" s="1">
+        <v>19</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.64039999999999997</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B22" s="1">
+        <v>100</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1681</v>
+      </c>
+      <c r="F22" s="1">
+        <v>100</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.51259999999999994</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="1">
+        <v>100</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="1">
+        <v>137</v>
+      </c>
+      <c r="F23" s="1">
+        <v>100</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.51970000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="1">
+        <v>100</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="1">
+        <v>126</v>
+      </c>
+      <c r="F24" s="1">
+        <v>100</v>
+      </c>
+      <c r="G24" s="1">
+        <v>3</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.52229999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="1">
+        <v>100</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="1">
+        <v>126</v>
+      </c>
+      <c r="F25" s="1">
+        <v>100</v>
+      </c>
+      <c r="G25" s="1">
+        <v>4</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.52100000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="1">
+        <v>100</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="1">
+        <v>119</v>
+      </c>
+      <c r="F26" s="1">
+        <v>100</v>
+      </c>
+      <c r="G26" s="1">
+        <v>5</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.52229999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="1">
+        <v>100</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="1">
+        <v>117</v>
+      </c>
+      <c r="F27" s="1">
+        <v>100</v>
+      </c>
+      <c r="G27" s="1">
+        <v>6</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.52239999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="1">
+        <v>100</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="1">
+        <v>112</v>
+      </c>
+      <c r="F28" s="1">
+        <v>100</v>
+      </c>
+      <c r="G28" s="1">
+        <v>7</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.62029999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="1">
+        <v>100</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="1">
+        <v>111</v>
+      </c>
+      <c r="F29" s="1">
+        <v>100</v>
+      </c>
+      <c r="G29" s="1">
+        <v>8</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.62119999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="1">
+        <v>100</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="1">
+        <v>100</v>
+      </c>
+      <c r="F30" s="1">
+        <v>100</v>
+      </c>
+      <c r="G30" s="1">
+        <v>9</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.62570000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="1">
+        <v>100</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="1">
+        <v>67</v>
+      </c>
+      <c r="F31" s="1">
+        <v>100</v>
+      </c>
+      <c r="G31" s="1">
+        <v>10</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B32" s="1">
+        <v>100</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="1">
+        <v>62</v>
+      </c>
+      <c r="F32" s="1">
+        <v>100</v>
+      </c>
+      <c r="G32" s="1">
+        <v>11</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.64249999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="1">
+        <v>100</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="1">
+        <v>59</v>
+      </c>
+      <c r="F33" s="1">
+        <v>100</v>
+      </c>
+      <c r="G33" s="1">
+        <v>12</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.64270000000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="1">
+        <v>100</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="1">
+        <v>58</v>
+      </c>
+      <c r="F34" s="1">
+        <v>100</v>
+      </c>
+      <c r="G34" s="1">
+        <v>13</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.64259999999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="1">
+        <v>100</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="1">
+        <v>41</v>
+      </c>
+      <c r="F35" s="1">
+        <v>100</v>
+      </c>
+      <c r="G35" s="1">
+        <v>14</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.64370000000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="1">
+        <v>100</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="1">
+        <v>31</v>
+      </c>
+      <c r="F36" s="1">
+        <v>100</v>
+      </c>
+      <c r="G36" s="1">
+        <v>15</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.64280000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="1">
+        <v>100</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="1">
+        <v>20</v>
+      </c>
+      <c r="F37" s="1">
+        <v>100</v>
+      </c>
+      <c r="G37" s="1">
+        <v>16</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.6431</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="1">
+        <v>100</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="1">
+        <v>18</v>
+      </c>
+      <c r="F38" s="1">
+        <v>100</v>
+      </c>
+      <c r="G38" s="1">
+        <v>17</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.64359999999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="1">
+        <v>100</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="1">
+        <v>12</v>
+      </c>
+      <c r="F39" s="1">
+        <v>100</v>
+      </c>
+      <c r="G39" s="1">
+        <v>18</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.64280000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="1">
+        <v>100</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="1">
+        <v>3</v>
+      </c>
+      <c r="F40" s="1">
+        <v>100</v>
+      </c>
+      <c r="G40" s="1">
+        <v>19</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.64339999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="1">
+        <v>200</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2450</v>
+      </c>
+      <c r="F41" s="1">
+        <v>200</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.51259999999999994</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="1">
+        <v>200</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="1">
+        <v>395</v>
+      </c>
+      <c r="F42" s="1">
+        <v>200</v>
+      </c>
+      <c r="G42" s="1">
+        <v>2</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.51319999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="1">
+        <v>200</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="1">
+        <v>390</v>
+      </c>
+      <c r="F43" s="1">
+        <v>200</v>
+      </c>
+      <c r="G43" s="1">
+        <v>3</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.51439999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="1">
+        <v>200</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="1">
+        <v>390</v>
+      </c>
+      <c r="F44" s="1">
+        <v>200</v>
+      </c>
+      <c r="G44" s="1">
+        <v>4</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.51629999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="1">
+        <v>200</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="1">
+        <v>367</v>
+      </c>
+      <c r="F45" s="1">
+        <v>200</v>
+      </c>
+      <c r="G45" s="1">
+        <v>5</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.51649999999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="1">
+        <v>200</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="1">
+        <v>334</v>
+      </c>
+      <c r="F46" s="1">
+        <v>200</v>
+      </c>
+      <c r="G46" s="1">
+        <v>6</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.52259999999999995</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="1">
+        <v>200</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="1">
+        <v>320</v>
+      </c>
+      <c r="F47" s="1">
+        <v>200</v>
+      </c>
+      <c r="G47" s="1">
+        <v>7</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.52400000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="1">
+        <v>200</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="1">
+        <v>266</v>
+      </c>
+      <c r="F48" s="1">
+        <v>200</v>
+      </c>
+      <c r="G48" s="1">
+        <v>8</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0.52490000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49" s="1">
+        <v>200</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="1">
+        <v>220</v>
+      </c>
+      <c r="F49" s="1">
+        <v>200</v>
+      </c>
+      <c r="G49" s="1">
+        <v>9</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0.52510000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50" s="1">
+        <v>200</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="1">
+        <v>177</v>
+      </c>
+      <c r="F50" s="1">
+        <v>200</v>
+      </c>
+      <c r="G50" s="1">
+        <v>10</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0.56399999999999995</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51" s="1">
+        <v>200</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="1">
+        <v>164</v>
+      </c>
+      <c r="F51" s="1">
+        <v>200</v>
+      </c>
+      <c r="G51" s="1">
+        <v>11</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.62639999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B52" s="1">
+        <v>200</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="1">
+        <v>126</v>
+      </c>
+      <c r="F52" s="1">
+        <v>200</v>
+      </c>
+      <c r="G52" s="1">
+        <v>12</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0.62729999999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53" s="1">
+        <v>200</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="1">
+        <v>111</v>
+      </c>
+      <c r="F53" s="1">
+        <v>200</v>
+      </c>
+      <c r="G53" s="1">
+        <v>13</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0.62660000000000005</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B54" s="1">
+        <v>200</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" s="1">
+        <v>86</v>
+      </c>
+      <c r="F54" s="1">
+        <v>200</v>
+      </c>
+      <c r="G54" s="1">
+        <v>14</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0.64370000000000005</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B55" s="1">
+        <v>200</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55" s="1">
+        <v>75</v>
+      </c>
+      <c r="F55" s="1">
+        <v>200</v>
+      </c>
+      <c r="G55" s="1">
+        <v>15</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0.64480000000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B56" s="1">
+        <v>200</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D56" s="1">
+        <v>55</v>
+      </c>
+      <c r="F56" s="1">
+        <v>200</v>
+      </c>
+      <c r="G56" s="1">
+        <v>16</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0.64459999999999995</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B57" s="1">
+        <v>200</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57" s="1">
+        <v>40</v>
+      </c>
+      <c r="F57" s="1">
+        <v>200</v>
+      </c>
+      <c r="G57" s="1">
+        <v>17</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0.64639999999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58" s="1">
+        <v>200</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" s="1">
+        <v>25</v>
+      </c>
+      <c r="F58" s="1">
+        <v>200</v>
+      </c>
+      <c r="G58" s="1">
+        <v>18</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0.64470000000000005</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="1">
+        <v>200</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="1">
+        <v>9</v>
+      </c>
+      <c r="F59" s="1">
+        <v>200</v>
+      </c>
+      <c r="G59" s="1">
+        <v>19</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0.64400000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F3D1C3-35D2-4A70-B357-BCC7AD81F084}">
+  <dimension ref="B2:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="29.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.13250000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.0200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.1499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.18E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="1">
+        <v>-2.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="1">
+        <v>-2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="1">
+        <v>-3.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="1">
+        <v>-4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="1">
+        <v>-6.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="1">
+        <v>-9.7000000000000003E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3aa8172b9163bf4b/Documents/CCT/DataAnalytics/8.Capstone/Capstone Github Repository/MSc-Capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="379" documentId="8_{8B975B9C-7C3C-4FA1-999B-11F3734BEEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C22873D7-E6B7-4AC9-B04E-39D0A22E5F4E}"/>
+  <xr:revisionPtr revIDLastSave="385" documentId="8_{8B975B9C-7C3C-4FA1-999B-11F3734BEEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A14D298-814C-41B4-8D2A-C92FC2DE47EB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="855" firstSheet="11" activeTab="14" xr2:uid="{71125767-81DB-46BD-9156-A0AA2BEEECE0}"/>
+    <workbookView minimized="1" xWindow="34020" yWindow="7155" windowWidth="17280" windowHeight="8880" tabRatio="855" firstSheet="14" activeTab="21" xr2:uid="{71125767-81DB-46BD-9156-A0AA2BEEECE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -764,15 +764,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -782,8 +773,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4116,7 +4116,7 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -4137,7 +4137,7 @@
       <c r="J3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="6" t="s">
         <v>120</v>
       </c>
       <c r="L3" s="1">
@@ -4157,7 +4157,7 @@
       </c>
     </row>
     <row r="4" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B4" s="6"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="1" t="s">
         <v>81</v>
       </c>
@@ -4176,7 +4176,7 @@
       <c r="J4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="6" t="s">
         <v>126</v>
       </c>
       <c r="L4" s="1">
@@ -4196,7 +4196,7 @@
       </c>
     </row>
     <row r="5" spans="2:16" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B5" s="7"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="1" t="s">
         <v>82</v>
       </c>
@@ -4215,7 +4215,7 @@
       <c r="J5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="6" t="s">
         <v>148</v>
       </c>
       <c r="L5" s="1">
@@ -4235,7 +4235,7 @@
       </c>
     </row>
     <row r="6" spans="2:16" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -4256,7 +4256,7 @@
       <c r="J6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="6" t="s">
         <v>183</v>
       </c>
       <c r="L6" s="1">
@@ -4276,7 +4276,7 @@
       </c>
     </row>
     <row r="7" spans="2:16" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="1" t="s">
         <v>81</v>
       </c>
@@ -4295,7 +4295,7 @@
       <c r="J7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="6" t="s">
         <v>178</v>
       </c>
       <c r="L7" s="1">
@@ -4315,7 +4315,7 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="7"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="1" t="s">
         <v>82</v>
       </c>
@@ -4327,7 +4327,7 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -4341,7 +4341,7 @@
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="6"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="1" t="s">
         <v>81</v>
       </c>
@@ -4356,7 +4356,7 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="7"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="1" t="s">
         <v>82</v>
       </c>
@@ -4389,7 +4389,7 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -4404,7 +4404,7 @@
       <c r="J12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="6" t="s">
         <v>116</v>
       </c>
       <c r="L12" s="1">
@@ -4424,7 +4424,7 @@
       </c>
     </row>
     <row r="13" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="6"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="1" t="s">
         <v>81</v>
       </c>
@@ -4437,7 +4437,7 @@
       <c r="J13" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="6" t="s">
         <v>129</v>
       </c>
       <c r="L13" s="1">
@@ -4457,7 +4457,7 @@
       </c>
     </row>
     <row r="14" spans="2:16" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B14" s="7"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="1" t="s">
         <v>82</v>
       </c>
@@ -4470,7 +4470,7 @@
       <c r="J14" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="6" t="s">
         <v>158</v>
       </c>
       <c r="L14" s="1">
@@ -4490,7 +4490,7 @@
       </c>
     </row>
     <row r="15" spans="2:16" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -4505,7 +4505,7 @@
       <c r="J15" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="6" t="s">
         <v>192</v>
       </c>
       <c r="L15" s="1">
@@ -4525,7 +4525,7 @@
       </c>
     </row>
     <row r="16" spans="2:16" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="1" t="s">
         <v>81</v>
       </c>
@@ -4538,7 +4538,7 @@
       <c r="J16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="6" t="s">
         <v>178</v>
       </c>
       <c r="L16" s="1">
@@ -4558,7 +4558,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="7"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="1" t="s">
         <v>82</v>
       </c>
@@ -4768,7 +4768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F3C5B9-96A5-4516-A2FB-66CE1C7CE9EA}">
   <dimension ref="B1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:F14"/>
     </sheetView>
   </sheetViews>
@@ -7167,283 +7167,283 @@
       </c>
     </row>
     <row r="2" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="6">
         <v>0.68</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="6">
         <v>0.94</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="6">
         <v>0.62</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="6">
         <v>0.75</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="6">
         <v>0.75</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="6">
         <v>0.71</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="6">
         <v>0.89</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="6">
         <v>0.71</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="6">
         <v>0.79</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="6">
         <v>0.71</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="6">
         <v>0.72</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="6">
         <v>0.89</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="6">
         <v>0.73</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="6">
         <v>0.81</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="6">
         <v>0.71</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="6">
         <v>0.72</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="6">
         <v>0.92</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="6">
         <v>0.7</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="6">
         <v>0.79</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="6">
         <v>0.74</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="6">
         <v>0.22</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="6">
         <v>0.88</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="6">
         <v>0</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="6">
         <v>0.01</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="6">
         <v>0.68</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="6">
         <v>0.94</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="6">
         <v>0.62</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="6">
         <v>0.75</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="6">
         <v>0.74</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="6">
         <v>0.71</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="6">
         <v>0.91</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="6">
         <v>0.69</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="6">
         <v>0.79</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="6">
         <v>0.73</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="6">
         <v>0.71</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="6">
         <v>0.91</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="6">
         <v>0.7</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="6">
         <v>0.79</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="6">
         <v>0.72</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="6">
         <v>0.72</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="6">
         <v>0.92</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="6">
         <v>0.69</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="6">
         <v>0.79</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="6">
         <v>0.74</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="6">
         <v>0.23</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="6">
         <v>0.94</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="6">
         <v>0.01</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="6">
         <v>0.02</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="6">
         <v>0.5</v>
       </c>
     </row>
@@ -8618,15 +8618,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12671294-877D-4CE7-828C-5A01E8BEB8F6}">
   <dimension ref="B2:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="B2:E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
@@ -8648,13 +8647,13 @@
         <v>35</v>
       </c>
       <c r="C3" s="1">
-        <v>0.14076706767800001</v>
+        <v>9.0355854817586401E-2</v>
       </c>
       <c r="D3" s="1">
-        <v>2521.2118473433702</v>
+        <v>2194.90064483796</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>2.8558993426470397E-181</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
@@ -8662,13 +8661,13 @@
         <v>38</v>
       </c>
       <c r="C4" s="1">
-        <v>0.121278467758</v>
+        <v>6.7835171987519594E-2</v>
       </c>
       <c r="D4" s="1">
-        <v>2521.2118473433702</v>
+        <v>1226.1948760923201</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>1.17195794861467E-104</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
@@ -8676,13 +8675,13 @@
         <v>40</v>
       </c>
       <c r="C5" s="1">
-        <v>0.103504536881</v>
+        <v>7.8374601771461494E-2</v>
       </c>
       <c r="D5" s="1">
-        <v>2521.2118473433702</v>
+        <v>1231.98109102428</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>6.0826803200435205E-241</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
@@ -8690,10 +8689,10 @@
         <v>28</v>
       </c>
       <c r="C6" s="1">
-        <v>0.37070202349100001</v>
+        <v>0.33832536922293399</v>
       </c>
       <c r="D6" s="1">
-        <v>2521.2118473433702</v>
+        <v>63970.1961878945</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -8704,10 +8703,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="1">
-        <v>0.511827908341</v>
+        <v>0.50265685550223105</v>
       </c>
       <c r="D7" s="1">
-        <v>2521.2118473433702</v>
+        <v>50046.461863154203</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -8718,13 +8717,13 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>4.2549369348999999E-2</v>
+        <v>2.1121710676099002E-2</v>
       </c>
       <c r="D8" s="1">
-        <v>2521.2118473433702</v>
+        <v>284.37178974902702</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>4.5603294713244399E-5</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
@@ -8732,13 +8731,13 @@
         <v>33</v>
       </c>
       <c r="C9" s="1">
-        <v>8.1317189897E-2</v>
+        <v>2.9293061523208899E-2</v>
       </c>
       <c r="D9" s="1">
-        <v>2521.2118473433702</v>
+        <v>752.05261974078905</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>2.9376026390568901E-6</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
@@ -8746,10 +8745,10 @@
         <v>31</v>
       </c>
       <c r="C10" s="1">
-        <v>0.30894928064299998</v>
+        <v>0.31098517859045299</v>
       </c>
       <c r="D10" s="1">
-        <v>2521.2118473433702</v>
+        <v>19001.325696691099</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -8760,13 +8759,13 @@
         <v>45</v>
       </c>
       <c r="C11" s="1">
-        <v>1.4733254786999999E-2</v>
+        <v>1.30021819998213E-2</v>
       </c>
       <c r="D11" s="1">
-        <v>2521.2118473433702</v>
+        <v>42.108624450914199</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>3.1396429394675999E-6</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
@@ -8774,10 +8773,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="1">
-        <v>0.394891309257</v>
+        <v>0.348065680123476</v>
       </c>
       <c r="D12" s="1">
-        <v>2521.2118473433702</v>
+        <v>25370.332553429202</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -8788,13 +8787,13 @@
         <v>43</v>
       </c>
       <c r="C13" s="1">
-        <v>1.9706688593999998E-2</v>
+        <v>5.7934690225716901E-3</v>
       </c>
       <c r="D13" s="1">
-        <v>2521.2118473433702</v>
+        <v>34.573472908851699</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>0.182625774296549</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
@@ -8802,13 +8801,13 @@
         <v>41</v>
       </c>
       <c r="C14" s="1">
-        <v>2.0738142968000001E-2</v>
+        <v>6.5720574875276997E-3</v>
       </c>
       <c r="D14" s="1">
-        <v>2521.2118473433702</v>
+        <v>32.458961577797801</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>0.116013744198219</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
@@ -8816,13 +8815,13 @@
         <v>42</v>
       </c>
       <c r="C15" s="1">
-        <v>2.3115574073000002E-2</v>
+        <v>1.48358441198483E-2</v>
       </c>
       <c r="D15" s="1">
-        <v>2521.2118473433702</v>
+        <v>57.105560494895599</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>3.75042165663195E-7</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
@@ -8830,13 +8829,13 @@
         <v>57</v>
       </c>
       <c r="C16" s="1">
-        <v>0.115317809216</v>
+        <v>0.11509125659088</v>
       </c>
       <c r="D16" s="1">
-        <v>2521.2118473433702</v>
+        <v>12947.1887214818</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>5.1106602267156302E-63</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
@@ -8844,13 +8843,13 @@
         <v>37</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>2.4202963374749701E-2</v>
       </c>
       <c r="D17" s="1">
-        <v>2521.2118473433702</v>
+        <v>223.72214204522601</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>6.3641913671350199E-10</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
@@ -8858,13 +8857,13 @@
         <v>44</v>
       </c>
       <c r="C18" s="1">
-        <v>6.4295714660000001E-3</v>
+        <v>3.62120918669311E-3</v>
       </c>
       <c r="D18" s="1">
-        <v>2521.2118473433702</v>
+        <v>3.5681249114390399</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>5.8898783856812499E-2</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
@@ -8872,13 +8871,13 @@
         <v>34</v>
       </c>
       <c r="C19" s="1">
-        <v>1.6835178584999999E-2</v>
+        <v>6.6315966597813598E-3</v>
       </c>
       <c r="D19" s="1">
-        <v>2521.2118473433702</v>
+        <v>118.613359671091</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>0.27063539331040598</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
@@ -8886,13 +8885,13 @@
         <v>56</v>
       </c>
       <c r="C20" s="1">
-        <v>0.11968010339</v>
+        <v>0.100518441727004</v>
       </c>
       <c r="D20" s="1">
-        <v>2521.2118473433702</v>
+        <v>11341.837084319401</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>3.63200237758059E-42</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
@@ -8900,13 +8899,13 @@
         <v>46</v>
       </c>
       <c r="C21" s="1">
-        <v>6.6360879533999995E-2</v>
+        <v>6.7736363337236594E-2</v>
       </c>
       <c r="D21" s="1">
-        <v>2521.2118473433702</v>
+        <v>899.56977929876302</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>1.2171541073186999E-197</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
@@ -8914,13 +8913,13 @@
         <v>36</v>
       </c>
       <c r="C22" s="1">
-        <v>2.1102163847000002E-2</v>
+        <v>1.1751497659002999E-2</v>
       </c>
       <c r="D22" s="1">
-        <v>2521.2118473433702</v>
+        <v>227.04648854400801</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>9.1966119610073699E-2</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
@@ -8928,10 +8927,10 @@
         <v>32</v>
       </c>
       <c r="C23" s="1">
-        <v>0.117421625594</v>
+        <v>0.110476513484689</v>
       </c>
       <c r="D23" s="1">
-        <v>2521.2118473433702</v>
+        <v>2823.2777826869901</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -10476,7 +10475,7 @@
       <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>111</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -10490,7 +10489,7 @@
       <c r="B4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="5">
         <v>0.79</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -10504,7 +10503,7 @@
       <c r="B5" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>111</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -10518,7 +10517,7 @@
       <c r="B6" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="5">
         <v>0.79</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -10532,7 +10531,7 @@
       <c r="B7" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>111</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -10546,7 +10545,7 @@
       <c r="B8" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="5">
         <v>0.78</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -10560,7 +10559,7 @@
       <c r="B9" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="5" t="s">
         <v>111</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -10574,7 +10573,7 @@
       <c r="B10" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="5">
         <v>0.79</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -10588,7 +10587,7 @@
       <c r="B11" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="5" t="s">
         <v>111</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -10602,7 +10601,7 @@
       <c r="B12" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="5">
         <v>0.79</v>
       </c>
       <c r="E12" s="1" t="s">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3aa8172b9163bf4b/Documents/CCT/DataAnalytics/8.Capstone/Capstone Github Repository/MSc-Capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="385" documentId="8_{8B975B9C-7C3C-4FA1-999B-11F3734BEEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A14D298-814C-41B4-8D2A-C92FC2DE47EB}"/>
+  <xr:revisionPtr revIDLastSave="387" documentId="8_{8B975B9C-7C3C-4FA1-999B-11F3734BEEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBCA3482-8BA9-4153-933F-F121B4B6F993}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="34020" yWindow="7155" windowWidth="17280" windowHeight="8880" tabRatio="855" firstSheet="14" activeTab="21" xr2:uid="{71125767-81DB-46BD-9156-A0AA2BEEECE0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="855" firstSheet="16" activeTab="21" xr2:uid="{71125767-81DB-46BD-9156-A0AA2BEEECE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3aa8172b9163bf4b/Documents/CCT/DataAnalytics/8.Capstone/Capstone Github Repository/MSc-Capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="387" documentId="8_{8B975B9C-7C3C-4FA1-999B-11F3734BEEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBCA3482-8BA9-4153-933F-F121B4B6F993}"/>
+  <xr:revisionPtr revIDLastSave="404" documentId="8_{8B975B9C-7C3C-4FA1-999B-11F3734BEEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D7E189D-C648-48B2-9151-4FE76E973D4A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="855" firstSheet="16" activeTab="21" xr2:uid="{71125767-81DB-46BD-9156-A0AA2BEEECE0}"/>
+    <workbookView minimized="1" xWindow="38820" yWindow="1635" windowWidth="17280" windowHeight="8880" tabRatio="855" firstSheet="16" activeTab="22" xr2:uid="{71125767-81DB-46BD-9156-A0AA2BEEECE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,7 @@
     <sheet name="Oversampled Class Aware" sheetId="14" r:id="rId20"/>
     <sheet name="Oversampled RFECV" sheetId="16" r:id="rId21"/>
     <sheet name="Oversampled Association Analysi" sheetId="17" r:id="rId22"/>
+    <sheet name="Experimentation" sheetId="24" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="204">
   <si>
     <t>Comparison</t>
   </si>
@@ -663,6 +664,12 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Control Accuracy</t>
+  </si>
+  <si>
+    <t>Experiment Accuracy</t>
   </si>
 </sst>
 </file>
@@ -8618,7 +8625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12671294-877D-4CE7-828C-5A01E8BEB8F6}">
   <dimension ref="B2:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E23"/>
     </sheetView>
   </sheetViews>
@@ -8937,6 +8944,1317 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C415F72-93D4-466F-9A50-BC819B9CFD14}">
+  <dimension ref="B2:K59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.75480000000000003</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.69779999999999998</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.68430000000000002</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="1">
+        <v>4.1300000000000003E-2</v>
+      </c>
+      <c r="K3" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="10"/>
+      <c r="C4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.77839999999999998</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.78090000000000004</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.76219999999999999</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.7681</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K4" s="1">
+        <v>5.7200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="11"/>
+      <c r="C5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.79990000000000006</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.81040000000000001</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>4.8500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.76480000000000004</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.75549999999999995</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.69879999999999998</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.2802</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.16259999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="10"/>
+      <c r="C7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.77739999999999998</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.78280000000000005</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.76190000000000002</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.76780000000000004</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.87180000000000002</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.96109999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="11"/>
+      <c r="C8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.79969999999999997</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.80930000000000002</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="1">
+        <v>6.0900000000000003E-2</v>
+      </c>
+      <c r="K8" s="1">
+        <v>4.9700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.76380000000000003</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.75980000000000003</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.68810000000000004</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.1196</v>
+      </c>
+      <c r="K9" s="1">
+        <v>4.8899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="10"/>
+      <c r="C10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.77780000000000005</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.77980000000000005</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.76270000000000004</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.76390000000000002</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="1">
+        <v>6.59E-2</v>
+      </c>
+      <c r="K10" s="1">
+        <v>6.4199999999999993E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="11"/>
+      <c r="C11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.80179999999999996</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.81079999999999997</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.12330000000000001</v>
+      </c>
+      <c r="K11" s="1">
+        <v>5.6099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.76390000000000002</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.74139999999999995</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.69769999999999999</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.58879999999999999</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="1">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="K12" s="1">
+        <v>6.54E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="10"/>
+      <c r="C13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.77829999999999999</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.75939999999999996</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.76270000000000004</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.73340000000000005</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="1">
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="K13" s="1">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="11"/>
+      <c r="C14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.7833</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.79079999999999995</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2.76E-2</v>
+      </c>
+      <c r="K14" s="1">
+        <v>3.27E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.76439999999999997</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.59160000000000001</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.56140000000000001</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="K15" s="1">
+        <v>3.3099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="10"/>
+      <c r="C16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.7782</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.65720000000000001</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.76239999999999997</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.60009999999999997</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="1">
+        <v>7.3300000000000004E-2</v>
+      </c>
+      <c r="K16" s="1">
+        <v>5.4899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="11"/>
+      <c r="C17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.71279999999999999</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.59619999999999995</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" s="1">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="K17" s="1">
+        <v>4.9799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.76370000000000005</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.69340000000000002</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="1">
+        <v>4.4299999999999999E-2</v>
+      </c>
+      <c r="K18" s="1">
+        <v>5.04E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="10"/>
+      <c r="C19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.77810000000000001</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.77659999999999996</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.7621</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.76180000000000003</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="1">
+        <v>5.21E-2</v>
+      </c>
+      <c r="K19" s="1">
+        <v>4.9599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="11"/>
+      <c r="C20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.80210000000000004</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="1">
+        <v>6.6100000000000006E-2</v>
+      </c>
+      <c r="K20" s="1">
+        <v>4.36E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.76439999999999997</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.754</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.69740000000000002</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.68340000000000001</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="1">
+        <v>6.0299999999999999E-2</v>
+      </c>
+      <c r="K21" s="1">
+        <v>5.74E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="10"/>
+      <c r="C22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.7772</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.76859999999999995</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.76219999999999999</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.76380000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="11"/>
+      <c r="C23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.80179999999999996</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.81040000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.76359999999999995</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.76039999999999996</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.69269999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="10"/>
+      <c r="C25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.77710000000000001</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.77510000000000001</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.76359999999999995</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.75590000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="11"/>
+      <c r="C26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.8075</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.76390000000000002</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.71489999999999998</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.69710000000000005</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.66020000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="10"/>
+      <c r="C28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.7772</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.77470000000000006</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.76280000000000003</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.7661</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="11"/>
+      <c r="C29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.80210000000000004</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.81089999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.76380000000000003</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.75319999999999998</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.69769999999999999</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.65739999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="10"/>
+      <c r="C31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.77780000000000005</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.77339999999999998</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.76239999999999997</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.76129999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="11"/>
+      <c r="C32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.79769999999999996</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.80449999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.76359999999999995</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.76329999999999998</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.69740000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="10"/>
+      <c r="C34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.77839999999999998</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.77929999999999999</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.7621</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.76380000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="11"/>
+      <c r="C35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.81100000000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.76370000000000005</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.75739999999999996</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.69689999999999996</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.68520000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="10"/>
+      <c r="C37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.77780000000000005</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.78320000000000001</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.76259999999999994</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.77769999999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="11"/>
+      <c r="C38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.81100000000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.76439999999999997</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.6976</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.69189999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="10"/>
+      <c r="C40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.78259999999999996</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.76259999999999994</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.77539999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="11"/>
+      <c r="C41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.80020000000000002</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.81059999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.76439999999999997</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.76229999999999998</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.6986</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.69350000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="10"/>
+      <c r="C43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.77739999999999998</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.77459999999999996</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.76359999999999995</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.76049999999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="11"/>
+      <c r="C44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.81100000000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.76349999999999996</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.76349999999999996</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.69650000000000001</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.69689999999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="10"/>
+      <c r="C46" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.77859999999999996</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.77859999999999996</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.76329999999999998</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.76290000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="11"/>
+      <c r="C47" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.80189999999999995</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.81110000000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.76429999999999998</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.76239999999999997</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.69769999999999999</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.6804</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="10"/>
+      <c r="C49" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.77749999999999997</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0.77890000000000004</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0.76219999999999999</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0.76339999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50" s="11"/>
+      <c r="C50" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.80220000000000002</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.81079999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B51" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.76449999999999996</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.76429999999999998</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.6986</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.69869999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B52" s="10"/>
+      <c r="C52" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.7782</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0.7782</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0.76239999999999997</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.76190000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B53" s="11"/>
+      <c r="C53" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.81100000000000005</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B54" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.76370000000000005</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0.75549999999999995</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0.69740000000000002</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.68869999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B55" s="10"/>
+      <c r="C55" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0.77490000000000003</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0.7621</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.76639999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B56" s="11"/>
+      <c r="C56" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0.81069999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B57" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0.75980000000000003</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0.69869999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B58" s="10"/>
+      <c r="C58" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0.77729999999999999</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0.76219999999999999</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0.75749999999999995</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B59" s="11"/>
+      <c r="C59" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0.80249999999999999</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0.80859999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
